--- a/visitCompany.xlsx
+++ b/visitCompany.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9639A6-7F7A-4915-8E1B-5843D4586A91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802BC383-B02A-421B-AA91-56230F166645}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洛阳市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,23 +464,23 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -580,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -597,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -631,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -648,21 +648,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
